--- a/EY39Data.xlsx
+++ b/EY39Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Documents/GitHub/EY39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2583F08-2249-404F-B5E6-F037540529B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF76CD5-2A04-4C4D-A9D4-8C8E27745A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16700" xr2:uid="{D4294CA2-1B74-464F-BF30-963476ED2722}"/>
   </bookViews>
@@ -856,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADB2D9-9944-194B-B27F-E71F4F75C463}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
